--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
+          <t>Piscicultura Magdalena</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
+          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Piscicultura Magdalena</t>
+          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
+          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
+          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4500</v>
+        <v>2475</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2475</v>
+        <v>4500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>FIORDO BLANCO S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>FIORDO BLANCO S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
+          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ACUICOLA PUYUHUAPI S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>ACUICOLA PUYUHUAPI S.A.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Australes S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Salmones Australes S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
+          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
+          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19513,7 +19513,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
+          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
+          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22153,7 +22153,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23060,12 +23060,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23300,12 +23300,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS PEARSON SW1, ISLA MAGDALENA SUR-WESTE PUNTA PEARSON PUYUHUAPI 1 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Multiexport Ltda.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS, BAHIA MALA SUR FRENTE ISLA REFUGIO (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Piscicultura Magdalena</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
+          <t>Piscicultura Magdalena</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
+          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
+          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
+          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
+          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2475</v>
+        <v>4500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4500</v>
+        <v>2475</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>FIORDO BLANCO S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>FIORDO BLANCO S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
+          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>ACUICOLA PUYUHUAPI S.A.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ACUICOLA PUYUHUAPI S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Salmones Australes S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Australes S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
+          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
+          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19513,7 +19513,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
+          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
+          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22153,7 +22153,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23060,12 +23060,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23300,12 +23300,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS PEARSON SW1, ISLA MAGDALENA SUR-WESTE PUNTA PEARSON PUYUHUAPI 1 (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Salmones Multiexport Ltda.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS, BAHIA MALA SUR FRENTE ISLA REFUGIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -10471,7 +10471,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -23815,7 +23815,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>AUSTRALIS MAR S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F489" t="n">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
+          <t>Piscicultura Magdalena</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
+          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Piscicultura Magdalena</t>
+          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
+          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
+          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4500</v>
+        <v>2475</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2475</v>
+        <v>4500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>FIORDO BLANCO S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>FIORDO BLANCO S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
+          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ACUICOLA PUYUHUAPI S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>ACUICOLA PUYUHUAPI S.A.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Australes S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Salmones Australes S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
+          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
+          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -18007,7 +18007,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Cultivos Yadran S.A.</t>
+          <t>Salmones Humboldt Spa</t>
         </is>
       </c>
       <c r="F368" t="n">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19513,7 +19513,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
+          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
+          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22153,7 +22153,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23060,12 +23060,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23300,12 +23300,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS PEARSON SW1, ISLA MAGDALENA SUR-WESTE PUNTA PEARSON PUYUHUAPI 1 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Multiexport Ltda.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS, BAHIA MALA SUR FRENTE ISLA REFUGIO (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -6055,7 +6055,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Chiloé S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -12535,7 +12535,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Salmones Frioaysén S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F254" t="n">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F255" t="n">
@@ -12727,7 +12727,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F258" t="n">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Piscicultura Magdalena</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
+          <t>Piscicultura Magdalena</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
+          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
+          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
+          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
+          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2475</v>
+        <v>4500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4500</v>
+        <v>2475</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>FIORDO BLANCO S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>FIORDO BLANCO S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
+          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>ACUICOLA PUYUHUAPI S.A.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ACUICOLA PUYUHUAPI S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Salmones Australes S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Australes S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
+          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
+          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19513,7 +19513,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
+          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
+          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22153,7 +22153,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22297,7 +22297,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22345,7 +22345,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23060,12 +23060,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23300,12 +23300,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS PEARSON SW1, ISLA MAGDALENA SUR-WESTE PUNTA PEARSON PUYUHUAPI 1 (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Salmones Multiexport Ltda.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS, BAHIA MALA SUR FRENTE ISLA REFUGIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
+          <t>Piscicultura Magdalena</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
+          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Piscicultura Magdalena</t>
+          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
+          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
+          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4500</v>
+        <v>2475</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2475</v>
+        <v>4500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>FIORDO BLANCO S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>FIORDO BLANCO S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
+          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ACUICOLA PUYUHUAPI S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>ACUICOLA PUYUHUAPI S.A.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Australes S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Salmones Australes S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
+          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>Exportadora Los Fiordos Limitada</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
+          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19513,7 +19513,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
+          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
+          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22153,7 +22153,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22297,7 +22297,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22345,7 +22345,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23060,12 +23060,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23300,12 +23300,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS PEARSON SW1, ISLA MAGDALENA SUR-WESTE PUNTA PEARSON PUYUHUAPI 1 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Multiexport Ltda.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS, BAHIA MALA SUR FRENTE ISLA REFUGIO (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
+          <t>Piscicultura Magdalena</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
+          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Piscicultura Magdalena</t>
+          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
+          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
+          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4500</v>
+        <v>2475</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2475</v>
+        <v>4500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6439,7 +6439,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>FIORDO BLANCO S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>FIORDO BLANCO S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11479,7 +11479,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11575,7 +11575,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -12151,7 +12151,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F246" t="n">
@@ -12199,7 +12199,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
+          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F276" t="n">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ACUICOLA PUYUHUAPI S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>ACUICOLA PUYUHUAPI S.A.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Australes S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Salmones Australes S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14455,7 +14455,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F294" t="n">
@@ -14695,7 +14695,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F299" t="n">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -15607,7 +15607,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F318" t="n">
@@ -15655,7 +15655,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F319" t="n">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
+          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
+          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -18583,7 +18583,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F380" t="n">
@@ -18631,7 +18631,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F381" t="n">
@@ -18679,7 +18679,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F382" t="n">
@@ -18727,7 +18727,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F383" t="n">
@@ -18775,7 +18775,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F384" t="n">
@@ -18823,7 +18823,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F385" t="n">
@@ -18871,7 +18871,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F386" t="n">
@@ -18919,7 +18919,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F387" t="n">
@@ -18967,7 +18967,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F388" t="n">
@@ -19015,7 +19015,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F389" t="n">
@@ -19159,7 +19159,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F392" t="n">
@@ -19303,7 +19303,7 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F395" t="n">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19447,7 +19447,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F398" t="n">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19495,7 +19495,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F399" t="n">
@@ -19513,7 +19513,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -19831,7 +19831,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F406" t="n">
@@ -19927,7 +19927,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F408" t="n">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
+          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
+          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20215,7 +20215,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F414" t="n">
@@ -20263,7 +20263,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F415" t="n">
@@ -20311,7 +20311,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F416" t="n">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21703,7 +21703,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F445" t="n">
@@ -21799,7 +21799,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Exportadora Los Fiordos Limitada</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F447" t="n">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22153,7 +22153,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22297,7 +22297,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22345,7 +22345,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23060,12 +23060,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23300,12 +23300,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS PEARSON SW1, ISLA MAGDALENA SUR-WESTE PUNTA PEARSON PUYUHUAPI 1 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Multiexport Ltda.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS, BAHIA MALA SUR FRENTE ISLA REFUGIO (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Piscicultura Magdalena</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
+          <t>Piscicultura Magdalena</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
+          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
+          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
+          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
+          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2475</v>
+        <v>4500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4500</v>
+        <v>2475</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>FIORDO BLANCO S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>FIORDO BLANCO S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
+          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>ACUICOLA PUYUHUAPI S.A.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ACUICOLA PUYUHUAPI S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Salmones Australes S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Australes S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
+          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
+          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19513,7 +19513,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
+          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
+          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22153,7 +22153,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22297,7 +22297,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22345,7 +22345,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23060,12 +23060,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23300,12 +23300,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS PEARSON SW1, ISLA MAGDALENA SUR-WESTE PUNTA PEARSON PUYUHUAPI 1 (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Salmones Multiexport Ltda.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS, BAHIA MALA SUR FRENTE ISLA REFUGIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
+          <t>Piscicultura Magdalena</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
+          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Piscicultura Magdalena</t>
+          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
+          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
+          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4500</v>
+        <v>2475</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2475</v>
+        <v>4500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>FIORDO BLANCO S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>FIORDO BLANCO S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
+          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ACUICOLA PUYUHUAPI S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>ACUICOLA PUYUHUAPI S.A.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Australes S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Salmones Australes S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
+          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
+          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19513,7 +19513,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
+          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
+          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22153,7 +22153,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22297,7 +22297,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22345,7 +22345,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23060,12 +23060,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23300,12 +23300,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS PEARSON SW1, ISLA MAGDALENA SUR-WESTE PUNTA PEARSON PUYUHUAPI 1 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Multiexport Ltda.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS, BAHIA MALA SUR FRENTE ISLA REFUGIO (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Piscicultura Magdalena</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
+          <t>Piscicultura Magdalena</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
+          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
+          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
+          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
+          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2475</v>
+        <v>4500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4500</v>
+        <v>2475</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10039,7 +10039,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>FIORDO BLANCO S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>FIORDO BLANCO S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
+          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>ACUICOLA PUYUHUAPI S.A.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ACUICOLA PUYUHUAPI S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Salmones Australes S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Australes S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
+          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
+          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19513,7 +19513,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
+          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
+          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22039,7 +22039,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F452" t="n">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22135,7 +22135,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F454" t="n">
@@ -22153,7 +22153,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22279,7 +22279,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F457" t="n">
@@ -22297,7 +22297,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22345,7 +22345,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23060,12 +23060,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23300,12 +23300,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS PEARSON SW1, ISLA MAGDALENA SUR-WESTE PUNTA PEARSON PUYUHUAPI 1 (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Salmones Multiexport Ltda.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS, BAHIA MALA SUR FRENTE ISLA REFUGIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
+          <t>Piscicultura Magdalena</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
+          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Piscicultura Magdalena</t>
+          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
+          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
+          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4500</v>
+        <v>2475</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2475</v>
+        <v>4500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>FIORDO BLANCO S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>FIORDO BLANCO S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
+          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ACUICOLA PUYUHUAPI S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>ACUICOLA PUYUHUAPI S.A.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Australes S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Salmones Australes S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
+          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
+          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19513,7 +19513,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
+          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
+          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22039,7 +22039,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F452" t="n">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22087,7 +22087,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F453" t="n">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22135,7 +22135,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F454" t="n">
@@ -22153,7 +22153,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22183,7 +22183,7 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F455" t="n">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22279,7 +22279,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F457" t="n">
@@ -22297,7 +22297,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22345,7 +22345,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22375,7 +22375,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F459" t="n">
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23060,12 +23060,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23300,12 +23300,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS PEARSON SW1, ISLA MAGDALENA SUR-WESTE PUNTA PEARSON PUYUHUAPI 1 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Salmones Multiexport Ltda.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS, BAHIA MALA SUR FRENTE ISLA REFUGIO (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -5431,7 +5431,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10279,7 +10279,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -11623,7 +11623,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -12487,7 +12487,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F253" t="n">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F275" t="n">
@@ -13975,7 +13975,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F284" t="n">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F285" t="n">
@@ -14071,7 +14071,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F286" t="n">
@@ -14599,7 +14599,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F297" t="n">
@@ -14791,7 +14791,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F301" t="n">
@@ -21031,7 +21031,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F431" t="n">
@@ -21079,7 +21079,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F432" t="n">
@@ -21127,7 +21127,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F433" t="n">
@@ -21223,7 +21223,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F435" t="n">
@@ -21271,7 +21271,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F436" t="n">
@@ -21319,7 +21319,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F437" t="n">
@@ -21415,7 +21415,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F439" t="n">
@@ -21463,7 +21463,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F440" t="n">
@@ -21847,7 +21847,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F448" t="n">
@@ -21991,7 +21991,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F451" t="n">
@@ -22039,7 +22039,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F452" t="n">
@@ -22135,7 +22135,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F454" t="n">
@@ -22231,7 +22231,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F456" t="n">
@@ -22279,7 +22279,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F457" t="n">
@@ -22327,7 +22327,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F458" t="n">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Piscicultura Magdalena</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
+          <t>Piscicultura Magdalena</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
+          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
+          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
+          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
+          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2475</v>
+        <v>4500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4500</v>
+        <v>2475</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>FIORDO BLANCO S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>FIORDO BLANCO S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
+          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>ACUICOLA PUYUHUAPI S.A.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ACUICOLA PUYUHUAPI S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Salmones Australes S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Australes S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
+          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
+          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19513,7 +19513,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
+          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
+          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,7 +21943,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F450" t="n">
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22153,7 +22153,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22231,7 +22231,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F456" t="n">
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22297,7 +22297,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22345,7 +22345,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23060,12 +23060,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23300,12 +23300,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS PEARSON SW1, ISLA MAGDALENA SUR-WESTE PUNTA PEARSON PUYUHUAPI 1 (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Salmones Multiexport Ltda.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS, BAHIA MALA SUR FRENTE ISLA REFUGIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
+          <t>Piscicultura Magdalena</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
+          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Piscicultura Magdalena</t>
+          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
+          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
+          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4500</v>
+        <v>2475</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2475</v>
+        <v>4500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>FIORDO BLANCO S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>FIORDO BLANCO S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
+          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ACUICOLA PUYUHUAPI S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>ACUICOLA PUYUHUAPI S.A.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Australes S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Salmones Australes S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
+          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
+          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19513,7 +19513,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
+          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
+          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,7 +21943,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F450" t="n">
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22153,7 +22153,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22231,7 +22231,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F456" t="n">
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22297,7 +22297,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22345,7 +22345,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23060,12 +23060,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23300,12 +23300,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS PEARSON SW1, ISLA MAGDALENA SUR-WESTE PUNTA PEARSON PUYUHUAPI 1 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>Salmones Multiexport Ltda.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS, BAHIA MALA SUR FRENTE ISLA REFUGIO (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -16999,7 +16999,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Salmones Galway Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
@@ -17047,7 +17047,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Salmones Galway Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -17095,7 +17095,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Salmones Galway Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F349" t="n">
@@ -17143,7 +17143,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Salmones Galway Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F350" t="n">
@@ -17191,7 +17191,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Salmones Galway Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17239,7 +17239,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Salmones Galway Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F352" t="n">
@@ -17287,7 +17287,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Salmones Galway Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F353" t="n">
@@ -20359,7 +20359,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Salmones Galway Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F417" t="n">
@@ -20407,7 +20407,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Salmones Galway Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F418" t="n">
@@ -20503,7 +20503,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Salmones Galway Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Piscicultura Magdalena</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
+          <t>Piscicultura Magdalena</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
+          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
+          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
+          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
+          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2475</v>
+        <v>4500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4500</v>
+        <v>2475</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>FIORDO BLANCO S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>FIORDO BLANCO S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
+          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>ACUICOLA PUYUHUAPI S.A.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ACUICOLA PUYUHUAPI S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Salmones Australes S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Australes S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
+          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
+          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19513,7 +19513,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
+          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
+          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,7 +20455,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Salmones Galway Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,7 +20503,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Galway Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,7 +21943,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F450" t="n">
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22153,7 +22153,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22231,7 +22231,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F456" t="n">
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22297,7 +22297,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22345,7 +22345,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23060,12 +23060,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23300,12 +23300,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS PEARSON SW1, ISLA MAGDALENA SUR-WESTE PUNTA PEARSON PUYUHUAPI 1 (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Salmones Multiexport Ltda.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS, BAHIA MALA SUR FRENTE ISLA REFUGIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
+          <t>Piscicultura Magdalena</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
+          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Piscicultura Magdalena</t>
+          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
+          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
+          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4500</v>
+        <v>2475</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2475</v>
+        <v>4500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>FIORDO BLANCO S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>FIORDO BLANCO S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
+          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ACUICOLA PUYUHUAPI S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>ACUICOLA PUYUHUAPI S.A.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Australes S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Salmones Australes S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
+          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
+          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19513,7 +19513,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
+          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
+          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,7 +20455,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Galway Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,7 +20503,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Salmones Galway Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,7 +21943,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F450" t="n">
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22153,7 +22153,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22231,7 +22231,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F456" t="n">
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22297,7 +22297,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22345,7 +22345,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23060,12 +23060,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23300,12 +23300,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS PEARSON SW1, ISLA MAGDALENA SUR-WESTE PUNTA PEARSON PUYUHUAPI 1 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>Salmones Multiexport Ltda.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS, BAHIA MALA SUR FRENTE ISLA REFUGIO (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Piscicultura Magdalena</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
+          <t>Piscicultura Magdalena</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
+          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
+          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
+          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
+          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2475</v>
+        <v>4500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4500</v>
+        <v>2475</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>FIORDO BLANCO S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>FIORDO BLANCO S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
+          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>ACUICOLA PUYUHUAPI S.A.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ACUICOLA PUYUHUAPI S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Salmones Australes S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Australes S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
+          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
+          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17911,7 +17911,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Salmones Gama Ltda</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19513,7 +19513,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
+          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
+          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,7 +20455,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Salmones Galway Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,7 +20503,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Galway Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21511,7 +21511,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Salmones Gama Ltda</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F441" t="n">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,7 +21943,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F450" t="n">
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22153,7 +22153,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22231,7 +22231,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F456" t="n">
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22297,7 +22297,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22345,7 +22345,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23060,12 +23060,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23300,12 +23300,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS PEARSON SW1, ISLA MAGDALENA SUR-WESTE PUNTA PEARSON PUYUHUAPI 1 (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Salmones Multiexport Ltda.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS, BAHIA MALA SUR FRENTE ISLA REFUGIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Sociedad Acuícola y Comercial Las Chauques Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -24151,7 +24151,7 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>Cultivos Yadran S.A.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F496" t="n">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
+          <t>Piscicultura Magdalena</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
+          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Piscicultura Magdalena</t>
+          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
+          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
+          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4500</v>
+        <v>2475</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2475</v>
+        <v>4500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>FIORDO BLANCO S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>FIORDO BLANCO S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
+          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ACUICOLA PUYUHUAPI S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>ACUICOLA PUYUHUAPI S.A.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Australes S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Salmones Australes S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
+          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
+          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19513,7 +19513,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
+          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
+          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,7 +20455,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Galway Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,7 +20503,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Salmones Galway Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,7 +21943,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F450" t="n">
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22153,7 +22153,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22231,7 +22231,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F456" t="n">
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22297,7 +22297,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22345,7 +22345,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23060,12 +23060,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23300,12 +23300,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS PEARSON SW1, ISLA MAGDALENA SUR-WESTE PUNTA PEARSON PUYUHUAPI 1 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>Salmones Multiexport Ltda.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS, BAHIA MALA SUR FRENTE ISLA REFUGIO (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Cisnes.xlsx
+++ b/data/Cisnes.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Piscicultura Magdalena</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, al Suroeste de Isla Level, Código de Centro Nº 110883 (Level SW)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
+          <t>Piscicultura Magdalena</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
+          <t>Modificación Centro de Engorda de Salmones, Suroeste de Isla Level, Código de Centro N° 110866 (Level W)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 1, XI REGION" (Código del Centro: 110705) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Carrera Oscura, al Norte de Isla Benjamín, Código de Centro N° 110921 (Benjamín 2)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS CANAL AVELLANO 2, XI REGION" (Código del Centro: 110710) AGUAS CLARAS S. A.</t>
+          <t>Ampliación de la producción del centro de engorda de Salmones, Bahía Adventure, Costa Norte de Isla Williams, N°pert 213111059, XI Región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128978576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Gala Sur</t>
+          <t>Regularización del Sistema de Ensilaje en Centro de Cultivo de Salmones Jesús Sur 3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8272700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Garrao Surweste, Código de Centro Nº 110655"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128527123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Islas Bajas, Código de Centro Nº 110842"</t>
+          <t>REGULARIZACIÓN DEL SISTEMA DE ENSILAJE "Centro de Engorda de Salmones, Isla Tránsito SW, Código de Centro Nº 110762"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128528139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
+          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Norte de Isla Cuptana, Código de Centro 110269</t>
+          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128414787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Estero Sin Nombre, Noreste de Isla Cuptana, Sector 2, Código de Centro N° 110254</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Teresa, Suroeste de Punta Abraham, Código de Centro 110877</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128415526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128412831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Undécima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2475</v>
+        <v>4500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico de Acuicultura. Centro de Cultivos de Salmónidos, sector Estero sin nombre (seno Gemmel), código de centro 110193. Canal Jacaf, XI región.</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Undécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4500</v>
+        <v>2475</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado Norte Isla Gertrudis, Pert Nº 212111034 (Código de Centro N° 110654) MCES Canal King, Lado Norte Isla Gertrudis, Pert</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Level, Isla Izaza I, Pert Nº 212111030 (Código de Centro N° 110657)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Sin Nombre, entre Isla Rojas e Isla Pen Davis, Pert Nº 212111032 (Código de Centro 110520) 110520</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7672365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal King, Lado NE Isla Gertrudis, Pert Nº 212111033 (Código de Centro Nº 110708)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7673283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PANGAL 2, XI REGION" Nº de Ingreso a Trámite: 212111011 (Código del Centro: 110127) AGUAS CLARAS S. A.</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Puyuhuapi, Lado Sur, Pert Nº 212111081 (Código de Centro N° 110839)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7680048&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 1 Modificación Proyecto Técnico CES Jesús Sur 1</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Jesús Sur 3 Modificación Proyecto Técnico CES Jesús Sur 3</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Gala Sur CC 110243</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmónidos Isla Harry CC 110411</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7061835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7046123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO EN CENTRO DE ENGORDA DE SALMONES ISLA UBALDO</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 2, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, SECTOR 2, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6824414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7027441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>AQUACHILE SPA.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>70</v>
+        <v>2000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES FORSYTH, CANAL CHAFFERS, SECTOR ESTE DE ISLA FORSYTH, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico en Centro de Engorda de Salmones PANGAL 1</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES JOHNSON 1, CANAL CHAFFERS, AL NORESTE DE ISLA JOHNSON, COMUNA DE CISNES, PROVINCIA DE AYSEN, DECIMA PRIMERA REGIÓN DE AYSÉN"</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>AQUACHILE SPA.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6493270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6526927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>FIORDO BLANCO S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Canal Chaffers, Weste Isla Bolados</t>
+          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos May, Canal Chaffers, Sureste Isla May</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110493</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>FIORDO BLANCO S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6061979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Modificación al Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje en el Centro de engorda de salmónidos Playa Bonita, Canal Playa Bonita, Isla May, Salmones Multiexport S.A.</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONES 110500</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6062186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6028360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
+          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Jorge, Sector Sureste, XI Región ensilaje ces jorge sector sureste</t>
+          <t>Modificación Proyecto Técnico C.E.S., Isla Rowlett, Sector 2 Este, XI Región, Pert 209111336 MPT ISLA ROWLETT SECTOR 2 ESTE, 209111336</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante un Sistema de Ensilaje en C.E.S., Isla Benjamin, Sector 4 Sur, XI Región ensilaje ces benjamin sector 4 sur</t>
+          <t>Modificación Proyecto Técnico C.E.S.,Isla Los Quicheles, Sector Norweste Isla Gorro, XI Región, Pert 209111334 MPT GORRO 209111334</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5385017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES QUEULAT, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110362"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>ACUICOLA PUYUHUAPI S.A.</t>
+          <t>Granja Marina Tornagaleones S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA GANSO, CANAL PUYUHUAPI, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110692"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES PUNTA KRAUSS, SENO MAGDALENA, COMUNA DE CISNES, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 110152"</t>
+          <t>"SISTEMA DE ENSILAJE CENTRO DE ENGORDA DE SALMONES CHIGUAY II, COMUNA DE CISNES, PROVINCIA DE AYSÉN, DECIMA PRIMERA REGIÓN DE AYSEN, CODIGO SERNAP 101106"</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Granja Marina Tornagaleones S.A.</t>
+          <t>ACUICOLA PUYUHUAPI S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5197557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5195243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Salmones Australes S.A.</t>
+          <t>EMPRESAS AQUACHILE S.A.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante Sistema de Ensilaje - Centro Marchant"</t>
+          <t>"Modificación del Sistema de Tratamiento de Mortalidad mediante un Sistema de Ensilaje - Centro Pangal I"</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>EMPRESAS AQUACHILE S.A.</t>
+          <t>Salmones Australes S.A.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5148242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5147905&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,7 +15703,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Los Fiordos Limitada.</t>
+          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Seno Canalad Isla Sin Nombre lado Este, PERT Nº 201111164</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>EXPORTADORA LOS FIORDOS LIMITADA</t>
+          <t>Los Fiordos Limitada.</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal Devia Seno Vera, Pert Nº 207111275</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Tortuga</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde Costa Sur Sector 1, Pert Nº 200111271</t>
+          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES Isla Valverde Costa Sur Sector 4, Nº Pert 200111273</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Isla Valverde 3 Sector 2, Costa Sur, Pert Nº 209111160</t>
+          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Regularización del Sistema de Ensilaje, CES, Canal S/N entre Isla Rojas e Isla Pen-Davis, Pert Nº 207111375</t>
+          <t>Regularización del Sistema de Ensilaje, CES Canal Puyuhuapi Sector Sur Punta Ganso, Pert N° 207111453</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4792807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4791935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Modificación Centro de Engorda de Salmones, Isla Harry, XI Región N° de Pert 201112081 (e-seia)</t>
+          <t>Modificación Centro de Engorda de Salmones, Canal Chaffers, Lado Este Isla May, Comuna de Cisnes, XI Región, Nº Pert 201111191 (Código de Centro 110615) (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19513,7 +19513,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3682432&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
+          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliación de producción centro de cultivo de salmonideos Transito 2, XI Región (e-seia)</t>
+          <t>Ampliación de Producción centro de cultivo de salmónidos Porvenir 2, XI Región (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3586037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,7 +20455,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Salmones Galway Ltda.</t>
+          <t>Australis Mar S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, ISLA CANALAD, SECTOR ESTE DE ISLA CANALAD - 1, PERT Nº 206111134 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE ENGORDA DE SALMONES, CANAL PUYUGUAPI, SECTOR NORTE DE PUNTA NIETO, PERT Nº 205111497 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,7 +20503,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Australis Mar S.A.</t>
+          <t>Salmones Galway Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3561136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3560911&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,7 +21943,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F450" t="n">
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22153,7 +22153,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22231,7 +22231,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Multi X S.A.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F456" t="n">
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3356913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3355277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22297,7 +22297,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Centro de Engorda de Salmónidos Pearson SW 2, Isla Magdalena Sur-Weste Punta Pearson, Puyuhuapi 2 (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22345,7 +22345,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 1, CANAL MEDIO ISLA BENJAMIN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONES FORSYTH SUR, ISLA FORSYTH SUR (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084699&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3347834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BROKEN, NORESTE ISLA BROKEN (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3300763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS JORGE, ISLA JORGE SECTOR NORESTE ces Jorge, Isla Jorge Sector Noreste (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301058&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ROWLETT NORTE, ISLA ROWLETT SECTOR NORTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS ISLAS VERDES, ISLA STOKES SECTOR ISLAS VERDES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3058748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONIDOS PUNTA STOKES, ISLA STOKES (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN SUR, ISLA BENJAMIN SECTOR SUR (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3059076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3084719&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23060,12 +23060,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 2, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS COCA 2, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDOS JESUS 3, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
+          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMONIDOS JESUS 1, XI REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS COCA 3, XI REGIÓN (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION CENTRO DE CULTIVO DE SALMONIDEOS CALETA MADINA, XI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23300,12 +23300,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS PEARSON SW1, ISLA MAGDALENA SUR-WESTE PUNTA PEARSON PUYUHUAPI 1 (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Salmones Multiexport Ltda.</t>
+          <t>Multi X S.A.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24212,12 +24212,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2990302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS, BAHIA MALA SUR FRENTE ISLA REFUGIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24308,12 +24308,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMÍN MEDIO 2, ISLA BENJAMÍN SECTOR ESTE (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2974515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMÓNIDOS BENJAMIN MEDIO 3, ISLA BENJAMIN SECTOR MEDIO (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMÓNIDOS LEVEL 1, CANAL SIMPSON LEVEL NORTE SECTOR UNO (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2975102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
